--- a/fullstack-middle.xlsx
+++ b/fullstack-middle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B6603-64A6-41F2-9225-4694B9580D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AC6F7-FE8E-4F5D-8AFD-DBD464CFCB41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/fullstack-middle.xlsx
+++ b/fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AC6F7-FE8E-4F5D-8AFD-DBD464CFCB41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B83E4-ADA3-4E5B-9833-74739AE41C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Middle fullstack-разработчик</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>изучение самого быстрого полноценного веб-фреймворка на Python</t>
-  </si>
-  <si>
-    <t>golang + gin</t>
   </si>
   <si>
     <t>golang + web framework</t>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>ansible, bash/shell</t>
+  </si>
+  <si>
+    <t>golang + gin (fasthttp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 недели * 3 раза в неделю * 3 часа = </t>
+  </si>
+  <si>
+    <t>4 недели * 2 раза * 2 часа</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -743,10 +749,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -760,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3">
         <v>6</v>
@@ -769,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -787,16 +793,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -805,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -823,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -841,16 +847,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
@@ -859,16 +865,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -877,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -936,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -963,13 +969,13 @@
         <v>41</v>
       </c>
       <c r="C14" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -978,7 +984,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4">
         <v>6</v>
@@ -987,28 +993,28 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1034,19 +1040,19 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1123,7 +1129,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>11</v>
@@ -1156,7 +1162,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1174,7 +1180,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1192,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1212,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1222,33 +1228,33 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8">
         <f>SUM(C3:C27)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(D3:D27)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,7 +1263,7 @@
       </c>
       <c r="B30" s="8">
         <f>ROUNDUP(D28/A30,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="8">
         <f>ROUNDUP(B30/4,0)</f>
@@ -1271,7 +1277,39 @@
       </c>
       <c r="F30" s="8">
         <f>E30*D28</f>
-        <v>487500</v>
+        <v>552500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fullstack-middle.xlsx
+++ b/fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B83E4-ADA3-4E5B-9833-74739AE41C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670937F-5C02-4EE9-862D-660DA180D751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1288,7 +1288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -1304,12 +1304,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="2">
         <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <f>D28/B35</f>
+        <v>5.3125</v>
       </c>
     </row>
   </sheetData>

--- a/fullstack-middle.xlsx
+++ b/fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670937F-5C02-4EE9-862D-660DA180D751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9643B7C-ED94-4F65-8558-D586CE2BFD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/fullstack-middle.xlsx
+++ b/fullstack-middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9643B7C-ED94-4F65-8558-D586CE2BFD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1FA763-D8C2-4F0D-8493-E1DF26E45D8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
